--- a/Data Mix/ResultatExcel/Centre.xlsx
+++ b/Data Mix/ResultatExcel/Centre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>4418962</v>
       </c>
       <c r="D2" t="n">
+        <v>15888763</v>
+      </c>
+      <c r="E2" t="n">
         <v>142685</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>15413978</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>243996</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>6996</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>47386</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>33722</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>8559968</v>
       </c>
       <c r="D3" t="n">
+        <v>30386010</v>
+      </c>
+      <c r="E3" t="n">
         <v>259593</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>29394011</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>543840</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>21654</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>101027</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>65885</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>12627170</v>
       </c>
       <c r="D4" t="n">
+        <v>44545156</v>
+      </c>
+      <c r="E4" t="n">
         <v>385320</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>43080631</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>795166</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>44921</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>132698</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>106420</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>15843201</v>
       </c>
       <c r="D5" t="n">
+        <v>55836324</v>
+      </c>
+      <c r="E5" t="n">
         <v>397920</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>53984554</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1065431</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>79302</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>178075</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>131042</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>18713386</v>
       </c>
       <c r="D6" t="n">
+        <v>67213933</v>
+      </c>
+      <c r="E6" t="n">
         <v>408365</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>65021166</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1266960</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>115500</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>228071</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>173871</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>21122391</v>
       </c>
       <c r="D7" t="n">
+        <v>76961219</v>
+      </c>
+      <c r="E7" t="n">
         <v>418629</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>74453729</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1470637</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>155035</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>249712</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>213477</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>23776489</v>
       </c>
       <c r="D8" t="n">
+        <v>87867478</v>
+      </c>
+      <c r="E8" t="n">
         <v>427596</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>85059366</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1663419</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>205164</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>255419</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>256514</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>26163066</v>
       </c>
       <c r="D9" t="n">
+        <v>96619470</v>
+      </c>
+      <c r="E9" t="n">
         <v>436533</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>93572741</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1794653</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>251686</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>259719</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>304138</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>28632424</v>
       </c>
       <c r="D10" t="n">
+        <v>105275666</v>
+      </c>
+      <c r="E10" t="n">
         <v>445226</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>101968900</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1975495</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>282328</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>260914</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>342803</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>31471504</v>
       </c>
       <c r="D11" t="n">
+        <v>114638412</v>
+      </c>
+      <c r="E11" t="n">
         <v>461030</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>110965413</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2246236</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>302703</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>270228</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>392802</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>35164797</v>
       </c>
       <c r="D12" t="n">
+        <v>126805219</v>
+      </c>
+      <c r="E12" t="n">
         <v>568184</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>122541897</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2629758</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>314125</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>308057</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>443198</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>39365611</v>
       </c>
       <c r="D13" t="n">
+        <v>141396366</v>
+      </c>
+      <c r="E13" t="n">
         <v>682476</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>136539494</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3016843</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>328563</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>331962</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>497028</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>265858969</v>
       </c>
       <c r="D14" t="n">
+        <v>963434016</v>
+      </c>
+      <c r="E14" t="n">
         <v>5033557</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>931995880</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>18712434</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2107977</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>2623268</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2960900</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>43421763</v>
       </c>
       <c r="D15" t="n">
+        <v>158088397</v>
+      </c>
+      <c r="E15" t="n">
         <v>792055</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>152561288</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3445271</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>339591</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>377969</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>572223</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>47075370</v>
       </c>
       <c r="D16" t="n">
+        <v>172776099</v>
+      </c>
+      <c r="E16" t="n">
         <v>894960</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>166459324</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3989656</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>359037</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>434913</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>638209</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>50560193</v>
       </c>
       <c r="D17" t="n">
+        <v>187573466</v>
+      </c>
+      <c r="E17" t="n">
         <v>992617</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>180773395</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>4218194</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>399596</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>475313</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>714351</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>53518363</v>
       </c>
       <c r="D18" t="n">
+        <v>200662115</v>
+      </c>
+      <c r="E18" t="n">
         <v>993684</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>193565809</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>4399825</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>440436</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>488707</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>773654</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>56206023</v>
       </c>
       <c r="D19" t="n">
+        <v>213463452</v>
+      </c>
+      <c r="E19" t="n">
         <v>995189</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>205942972</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>4696709</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>486086</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>504836</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>837660</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>58664938</v>
       </c>
       <c r="D20" t="n">
+        <v>225524338</v>
+      </c>
+      <c r="E20" t="n">
         <v>998118</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>217675989</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>4901686</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>537446</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>511827</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>899272</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>61228054</v>
       </c>
       <c r="D21" t="n">
+        <v>238120088</v>
+      </c>
+      <c r="E21" t="n">
         <v>1001133</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>229977915</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>5070079</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>583689</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>521423</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>965849</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>63554231</v>
       </c>
       <c r="D22" t="n">
+        <v>248767835</v>
+      </c>
+      <c r="E22" t="n">
         <v>1002646</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>240325139</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>5247956</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>628201</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>531725</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>1032168</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>66133721</v>
       </c>
       <c r="D23" t="n">
+        <v>258506999</v>
+      </c>
+      <c r="E23" t="n">
         <v>1004147</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>249803667</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>5394274</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>672845</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>536996</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>1095070</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>69039528</v>
       </c>
       <c r="D24" t="n">
+        <v>270072785</v>
+      </c>
+      <c r="E24" t="n">
         <v>1014951</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>261018362</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>5617717</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>700991</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>553965</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1166799</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>72321817</v>
       </c>
       <c r="D25" t="n">
+        <v>284828904</v>
+      </c>
+      <c r="E25" t="n">
         <v>1119712</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>275286839</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>5890099</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>716087</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>571965</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>1244202</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>76540731</v>
       </c>
       <c r="D26" t="n">
+        <v>302320586</v>
+      </c>
+      <c r="E26" t="n">
         <v>1236341</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>292163809</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>6270110</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>724491</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>606003</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>1319832</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>1249982670</v>
       </c>
       <c r="D27" t="n">
+        <v>4687573096</v>
+      </c>
+      <c r="E27" t="n">
         <v>22112667</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4529546268</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>96566444</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>10804450</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>11362178</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>17181089</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>80828661</v>
       </c>
       <c r="D28" t="n">
+        <v>319890489</v>
+      </c>
+      <c r="E28" t="n">
         <v>1352313</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>309050032</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>6718291</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>736615</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>648660</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>1384578</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>84834878</v>
       </c>
       <c r="D29" t="n">
+        <v>335865518</v>
+      </c>
+      <c r="E29" t="n">
         <v>1462397</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>324386975</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>7113698</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>757135</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>695912</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>1449401</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>88515321</v>
       </c>
       <c r="D30" t="n">
+        <v>352689974</v>
+      </c>
+      <c r="E30" t="n">
         <v>1576400</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>340584494</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>7475614</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>790247</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>742224</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>1520995</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>91339485</v>
       </c>
       <c r="D31" t="n">
+        <v>365171894</v>
+      </c>
+      <c r="E31" t="n">
         <v>1576732</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>352629522</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>7777010</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>841326</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>763227</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>1584077</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>93908907</v>
       </c>
       <c r="D32" t="n">
+        <v>376645872</v>
+      </c>
+      <c r="E32" t="n">
         <v>1578219</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>363674350</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>8056622</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>897076</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>785069</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>1654536</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>96559994</v>
       </c>
       <c r="D33" t="n">
+        <v>389664986</v>
+      </c>
+      <c r="E33" t="n">
         <v>1579708</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>376324814</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>8290162</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>963040</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>790493</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>1716769</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>99243297</v>
       </c>
       <c r="D34" t="n">
+        <v>401112133</v>
+      </c>
+      <c r="E34" t="n">
         <v>1581228</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>387396717</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>8530749</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>1023946</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>790707</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>1788786</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>101630876</v>
       </c>
       <c r="D35" t="n">
+        <v>412877780</v>
+      </c>
+      <c r="E35" t="n">
         <v>1582724</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>398827159</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>8733060</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1078718</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>791058</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>1865061</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>104180832</v>
       </c>
       <c r="D36" t="n">
+        <v>426492634</v>
+      </c>
+      <c r="E36" t="n">
         <v>1584199</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>411990340</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>9062955</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1125950</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>791849</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>1937341</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>107196814</v>
       </c>
       <c r="D37" t="n">
+        <v>438172896</v>
+      </c>
+      <c r="E37" t="n">
         <v>1589756</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>423340796</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>9281528</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1156031</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>794867</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>2009918</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>110356776</v>
       </c>
       <c r="D38" t="n">
+        <v>450341989</v>
+      </c>
+      <c r="E38" t="n">
         <v>1694991</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>434846614</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>9736041</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1176036</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>798634</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>2089673</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>113897378</v>
       </c>
       <c r="D39" t="n">
+        <v>466723594</v>
+      </c>
+      <c r="E39" t="n">
         <v>1800495</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>450635149</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>10126985</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1193496</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>802078</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>2165391</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>3672458559</v>
       </c>
       <c r="D40" t="n">
+        <v>14110795951</v>
+      </c>
+      <c r="E40" t="n">
         <v>63184496</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>13632779498</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>294035603</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>33348516</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>31919134</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>55528704</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>117960785</v>
       </c>
       <c r="D41" t="n">
+        <v>484382652</v>
+      </c>
+      <c r="E41" t="n">
         <v>1912261</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>467544318</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>10651357</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1207633</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>830245</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>2236838</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>121768003</v>
       </c>
       <c r="D42" t="n">
+        <v>500789327</v>
+      </c>
+      <c r="E42" t="n">
         <v>2020938</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>483149378</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>11202502</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1231137</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>883915</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>2301457</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>125588137</v>
       </c>
       <c r="D43" t="n">
+        <v>516505311</v>
+      </c>
+      <c r="E43" t="n">
         <v>2122122</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>498164284</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>11659741</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1270894</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>924630</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>2363640</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>128655449</v>
       </c>
       <c r="D44" t="n">
+        <v>528784281</v>
+      </c>
+      <c r="E44" t="n">
         <v>2122599</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>510021242</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>11918476</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1319032</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>968975</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>2433957</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>131275462</v>
       </c>
       <c r="D45" t="n">
+        <v>540714327</v>
+      </c>
+      <c r="E45" t="n">
         <v>2122676</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>521550126</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>12165283</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>1371793</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>994110</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>2510339</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>133684181</v>
       </c>
       <c r="D46" t="n">
+        <v>551810021</v>
+      </c>
+      <c r="E46" t="n">
         <v>2122682</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>532318994</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>12338864</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1420715</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>1029223</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>2579543</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>136161990</v>
       </c>
       <c r="D47" t="n">
+        <v>560993179</v>
+      </c>
+      <c r="E47" t="n">
         <v>2122683</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>541182587</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>12512675</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>1487043</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>1033369</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>2654822</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>138535330</v>
       </c>
       <c r="D48" t="n">
+        <v>571228007</v>
+      </c>
+      <c r="E48" t="n">
         <v>2122684</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>551076513</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>12704950</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1553346</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>1033939</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>2736575</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>140984543</v>
       </c>
       <c r="D49" t="n">
+        <v>581166310</v>
+      </c>
+      <c r="E49" t="n">
         <v>2122895</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>560759066</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>12838995</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>1600600</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>1035545</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>2809209</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>143965085</v>
       </c>
       <c r="D50" t="n">
+        <v>593598422</v>
+      </c>
+      <c r="E50" t="n">
         <v>2130825</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>572801075</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>13099179</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1645578</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>1036887</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>2884878</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>147532332</v>
       </c>
       <c r="D51" t="n">
+        <v>607044035</v>
+      </c>
+      <c r="E51" t="n">
         <v>2239825</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>585593089</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>13542498</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1664602</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>1049966</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>2954055</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>151717928</v>
       </c>
       <c r="D52" t="n">
+        <v>623907142</v>
+      </c>
+      <c r="E52" t="n">
         <v>2362413</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>602043038</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>13731368</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1683464</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>1056884</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>3029975</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>8962746343</v>
       </c>
       <c r="D53" t="n">
+        <v>34882514916</v>
+      </c>
+      <c r="E53" t="n">
         <v>151893595</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>33691762706</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>736437094</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>84152869</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>75715956</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>142552696</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>156468982</v>
       </c>
       <c r="D54" t="n">
+        <v>641588462</v>
+      </c>
+      <c r="E54" t="n">
         <v>2532364</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>619118435</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>14063757</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>1702709</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>1065239</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>3105958</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>160023336</v>
       </c>
       <c r="D55" t="n">
+        <v>657510127</v>
+      </c>
+      <c r="E55" t="n">
         <v>2671545</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>634355340</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>14503729</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1725135</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>1081678</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>3172700</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>163483654</v>
       </c>
       <c r="D56" t="n">
+        <v>674860112</v>
+      </c>
+      <c r="E56" t="n">
         <v>2813036</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>650996931</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>14913857</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>1763211</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>1122308</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>3250769</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>166423015</v>
       </c>
       <c r="D57" t="n">
+        <v>690823493</v>
+      </c>
+      <c r="E57" t="n">
         <v>2813370</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>666591162</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>15131970</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1829395</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>1131572</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>3326024</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>169055689</v>
       </c>
       <c r="D58" t="n">
+        <v>704069467</v>
+      </c>
+      <c r="E58" t="n">
         <v>2813373</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>679431023</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>15373672</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1895714</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>1144115</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>3411570</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>171613719</v>
       </c>
       <c r="D59" t="n">
+        <v>714460180</v>
+      </c>
+      <c r="E59" t="n">
         <v>2813401</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>689441328</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>15587592</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1969703</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>1151324</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>3496832</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>174191435</v>
       </c>
       <c r="D60" t="n">
+        <v>724193527</v>
+      </c>
+      <c r="E60" t="n">
         <v>2813452</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>698733604</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>15872693</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>2031768</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>1152473</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>3589537</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>176595741</v>
       </c>
       <c r="D61" t="n">
+        <v>734995248</v>
+      </c>
+      <c r="E61" t="n">
         <v>2813462</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>709180197</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>16072468</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>2094270</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>1153116</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>3681735</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>179065688</v>
       </c>
       <c r="D62" t="n">
+        <v>744206700</v>
+      </c>
+      <c r="E62" t="n">
         <v>2813481</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>717992964</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>16328198</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>2142620</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>1159090</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>3770347</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>181850946</v>
       </c>
       <c r="D63" t="n">
+        <v>753575619</v>
+      </c>
+      <c r="E63" t="n">
         <v>2819189</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>726940150</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>16607099</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>2184131</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>1159640</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>3865410</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>185460838</v>
       </c>
       <c r="D64" t="n">
+        <v>765086360</v>
+      </c>
+      <c r="E64" t="n">
         <v>2950136</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>737852349</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>16970779</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>2205726</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>1161175</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>3946195</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>189640063</v>
       </c>
       <c r="D65" t="n">
+        <v>779716476</v>
+      </c>
+      <c r="E65" t="n">
         <v>3092277</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>751676184</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>17509675</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>2217347</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>1190642</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>4030351</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>19999365792</v>
       </c>
       <c r="D66" t="n">
+        <v>78350115603</v>
+      </c>
+      <c r="E66" t="n">
         <v>337546276</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>75665835079</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>1661809677</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>192067467</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>165104284</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>327752820</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>193567287</v>
       </c>
       <c r="D67" t="n">
+        <v>795383672</v>
+      </c>
+      <c r="E67" t="n">
         <v>3269201</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>766369367</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>18123934</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>2228160</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1273951</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>4119059</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>197759909</v>
       </c>
       <c r="D68" t="n">
+        <v>809793827</v>
+      </c>
+      <c r="E68" t="n">
         <v>3419790</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>780063971</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>18530456</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>2255088</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>1328261</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>4196261</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>201627432</v>
       </c>
       <c r="D69" t="n">
+        <v>824969279</v>
+      </c>
+      <c r="E69" t="n">
         <v>3571359</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>794435718</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>19020511</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>2296340</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>1371627</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>4273724</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>204382347</v>
       </c>
       <c r="D70" t="n">
+        <v>837800487</v>
+      </c>
+      <c r="E70" t="n">
         <v>3572138</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>806803213</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>19305048</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>2353969</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>1408448</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>4357671</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>206916935</v>
       </c>
       <c r="D71" t="n">
+        <v>851742956</v>
+      </c>
+      <c r="E71" t="n">
         <v>3572306</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>820337981</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>19514257</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>2432132</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>1434556</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>4451724</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>209368720</v>
       </c>
       <c r="D72" t="n">
+        <v>863518519</v>
+      </c>
+      <c r="E72" t="n">
         <v>3572466</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>831726085</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>19719251</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>2508888</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>1459320</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>4532509</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>211976111</v>
       </c>
       <c r="D73" t="n">
+        <v>876219293</v>
+      </c>
+      <c r="E73" t="n">
         <v>3572473</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>844105536</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>19872194</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>2591515</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>1462915</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>4614660</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>214488675</v>
       </c>
       <c r="D74" t="n">
+        <v>888648191</v>
+      </c>
+      <c r="E74" t="n">
         <v>3573679</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>856171207</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>20062921</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>2669961</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>1463088</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>4707335</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>216930669</v>
       </c>
       <c r="D75" t="n">
+        <v>900273878</v>
+      </c>
+      <c r="E75" t="n">
         <v>3588612</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>867359032</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>20320853</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>2738420</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>1463693</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>4803268</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>219743632</v>
       </c>
       <c r="D76" t="n">
+        <v>911226429</v>
+      </c>
+      <c r="E76" t="n">
         <v>3605186</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>877784772</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>20682036</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>2788829</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1464574</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>4901032</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>223246270</v>
       </c>
       <c r="D77" t="n">
+        <v>920993766</v>
+      </c>
+      <c r="E77" t="n">
         <v>3722859</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>886940901</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>21061550</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>2814907</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>1466964</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>4986585</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>227197395</v>
       </c>
       <c r="D78" t="n">
+        <v>935495773</v>
+      </c>
+      <c r="E78" t="n">
         <v>3845693</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>900682019</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>21595724</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>2826888</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>1473472</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>5071977</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>42525936966</v>
       </c>
       <c r="D79" t="n">
+        <v>167116297276</v>
+      </c>
+      <c r="E79" t="n">
         <v>717978314</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>161364449960</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>3561428089</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>414640031</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>347279437</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>710521445</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>231715830</v>
       </c>
       <c r="D80" t="n">
+        <v>951551206</v>
+      </c>
+      <c r="E80" t="n">
         <v>4017639</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>916002621</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>22049253</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>2845416</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>1483990</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>5152287</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>235354470</v>
       </c>
       <c r="D81" t="n">
+        <v>967535559</v>
+      </c>
+      <c r="E81" t="n">
         <v>4149087</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>931345642</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>22419102</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>2889138</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>1506959</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>5225631</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>238910398</v>
       </c>
       <c r="D82" t="n">
+        <v>982943781</v>
+      </c>
+      <c r="E82" t="n">
         <v>4288543</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>945795237</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>23078366</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>2949147</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>1526019</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>5306469</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>241868294</v>
       </c>
       <c r="D83" t="n">
+        <v>996583287</v>
+      </c>
+      <c r="E83" t="n">
         <v>4305445</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>958914802</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>23418287</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>3019710</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>1532272</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>5392771</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>244594133</v>
       </c>
       <c r="D84" t="n">
+        <v>1009830221</v>
+      </c>
+      <c r="E84" t="n">
         <v>4315998</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>971644987</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>23742742</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>3099618</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>1540536</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>5486340</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>247058024</v>
       </c>
       <c r="D85" t="n">
+        <v>1021300590</v>
+      </c>
+      <c r="E85" t="n">
         <v>4316021</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>982659530</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>24023665</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>3185446</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>1545912</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>5570016</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>249748291</v>
       </c>
       <c r="D86" t="n">
+        <v>1032110028</v>
+      </c>
+      <c r="E86" t="n">
         <v>4316665</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>993009087</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>24297641</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>3280784</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>1546226</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>5659625</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>252228693</v>
       </c>
       <c r="D87" t="n">
+        <v>1043495000</v>
+      </c>
+      <c r="E87" t="n">
         <v>4333813</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1003926381</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>24567657</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>3365831</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>1546826</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>5754492</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>254755874</v>
       </c>
       <c r="D88" t="n">
+        <v>1054041819</v>
+      </c>
+      <c r="E88" t="n">
         <v>4353748</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>1013852541</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>25003104</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>3436858</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>1547526</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>5848042</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>257585682</v>
       </c>
       <c r="D89" t="n">
+        <v>1064213414</v>
+      </c>
+      <c r="E89" t="n">
         <v>4386268</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1023330313</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>25536356</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>3475913</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>1550728</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>5933836</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>261110145</v>
       </c>
       <c r="D90" t="n">
+        <v>1075109050</v>
+      </c>
+      <c r="E90" t="n">
         <v>4517339</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1033408076</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>26087013</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>3500859</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>1576750</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>6019013</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>264950492</v>
       </c>
       <c r="D91" t="n">
+        <v>1086603766</v>
+      </c>
+      <c r="E91" t="n">
         <v>4673554</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1043885773</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>26770461</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>3525325</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>1642302</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>6106351</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>88031754258</v>
       </c>
       <c r="D92" t="n">
+        <v>346517912273</v>
+      </c>
+      <c r="E92" t="n">
         <v>1487930748</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>334546674910</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>7413849825</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>867854107</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>713104920</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>1488497763</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>269044541</v>
       </c>
       <c r="D93" t="n">
+        <v>1101499265</v>
+      </c>
+      <c r="E93" t="n">
         <v>4855389</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1057786450</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>27434375</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>3553306</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>1677495</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>6192250</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>272696965</v>
       </c>
       <c r="D94" t="n">
+        <v>1115768998</v>
+      </c>
+      <c r="E94" t="n">
         <v>5003253</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1070793557</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>28387922</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>3593939</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>1719634</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>6270693</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>276146361</v>
       </c>
       <c r="D95" t="n">
+        <v>1130754483</v>
+      </c>
+      <c r="E95" t="n">
         <v>5151876</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>1084708335</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>29115076</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>3659314</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>1764907</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>6354975</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>278653526</v>
       </c>
       <c r="D96" t="n">
+        <v>1143801228</v>
+      </c>
+      <c r="E96" t="n">
         <v>5162880</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1097193933</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>29468181</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>3750676</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>1779299</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>6446259</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>281089578</v>
       </c>
       <c r="D97" t="n">
+        <v>1156312619</v>
+      </c>
+      <c r="E97" t="n">
         <v>5170205</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1109031599</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>29896321</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>3859732</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>1810540</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>6544222</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>283451174</v>
       </c>
       <c r="D98" t="n">
+        <v>1163856358</v>
+      </c>
+      <c r="E98" t="n">
         <v>5177438</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1116065417</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>30211212</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>3952515</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>1818958</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>6630818</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>286036324</v>
       </c>
       <c r="D99" t="n">
+        <v>1172130927</v>
+      </c>
+      <c r="E99" t="n">
         <v>5191821</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>1123803271</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>30521963</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>4068339</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>1821736</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>6723797</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>288469228</v>
       </c>
       <c r="D100" t="n">
+        <v>1180710304</v>
+      </c>
+      <c r="E100" t="n">
         <v>5207642</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1131853552</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>30837106</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>4166672</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>1824466</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>6820866</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>290944051</v>
       </c>
       <c r="D101" t="n">
+        <v>1189497243</v>
+      </c>
+      <c r="E101" t="n">
         <v>5229965</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1140106405</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>31182511</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>4251222</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>1826414</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>6900726</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>294040695</v>
       </c>
       <c r="D102" t="n">
+        <v>1199881892</v>
+      </c>
+      <c r="E102" t="n">
         <v>5261182</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1149660992</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>31838229</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>4295294</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>1841712</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>6984483</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>297375910</v>
       </c>
       <c r="D103" t="n">
+        <v>1212781823</v>
+      </c>
+      <c r="E103" t="n">
         <v>5371650</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>1161886776</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>32270961</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>4338477</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>1853077</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>7060882</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>301368747</v>
       </c>
       <c r="D104" t="n">
+        <v>1227249912</v>
+      </c>
+      <c r="E104" t="n">
         <v>5499073</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1175339708</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>33004809</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>4358696</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>1897856</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>7149770</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>179482825616</v>
       </c>
       <c r="D105" t="n">
+        <v>707030069598</v>
+      </c>
+      <c r="E105" t="n">
         <v>3038143870</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>682511579815</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>15191868316</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>1783556396</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>1447845934</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>3057075267</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>305771741</v>
       </c>
       <c r="D106" t="n">
+        <v>1243092036</v>
+      </c>
+      <c r="E106" t="n">
         <v>5675528</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1190206002</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>33630654</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>4383441</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>1957461</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>7238950</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>309510570</v>
       </c>
       <c r="D107" t="n">
+        <v>1257226728</v>
+      </c>
+      <c r="E107" t="n">
         <v>5801459</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1203439943</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>34222342</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>4429314</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>2017503</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>7316167</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>313120245</v>
       </c>
       <c r="D108" t="n">
+        <v>1270766058</v>
+      </c>
+      <c r="E108" t="n">
         <v>5926715</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1216146834</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>34762308</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>4483663</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>2043941</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>7402597</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>316080959</v>
       </c>
       <c r="D109" t="n">
+        <v>1283488347</v>
+      </c>
+      <c r="E109" t="n">
         <v>5944128</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1228166170</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>35218020</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>4620561</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>2052374</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>7487094</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>318804397</v>
       </c>
       <c r="D110" t="n">
+        <v>1293393581</v>
+      </c>
+      <c r="E110" t="n">
         <v>5952817</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>1237186070</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>35852314</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>4752678</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>2068039</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>7581663</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>321114929</v>
       </c>
       <c r="D111" t="n">
+        <v>1303475491</v>
+      </c>
+      <c r="E111" t="n">
         <v>5960099</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1246860538</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>36024742</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>4892208</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>2079284</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>7658620</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>323539334</v>
       </c>
       <c r="D112" t="n">
+        <v>1313602166</v>
+      </c>
+      <c r="E112" t="n">
         <v>5980093</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1256362450</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>36374983</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>5034806</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>2091898</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>7757936</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>325943428</v>
       </c>
       <c r="D113" t="n">
+        <v>1324972265</v>
+      </c>
+      <c r="E113" t="n">
         <v>5993696</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1267239509</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>36642733</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>5163867</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>2096693</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>7835767</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>328366436</v>
       </c>
       <c r="D114" t="n">
+        <v>1337327453</v>
+      </c>
+      <c r="E114" t="n">
         <v>5995630</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1279115907</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>36904573</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>5293607</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>2100876</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>7916860</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>331236365</v>
       </c>
       <c r="D115" t="n">
+        <v>1348679680</v>
+      </c>
+      <c r="E115" t="n">
         <v>6010711</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1289723474</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>37428913</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>5407679</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>2105949</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>8002954</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>334958775</v>
       </c>
       <c r="D116" t="n">
+        <v>1360221005</v>
+      </c>
+      <c r="E116" t="n">
         <v>6129453</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1300564139</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>37872539</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>5460453</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>2118047</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>8076374</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>339065413</v>
       </c>
       <c r="D117" t="n">
+        <v>1373328322</v>
+      </c>
+      <c r="E117" t="n">
         <v>6284407</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>1312632002</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>38597633</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>5496026</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>2152610</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>8165644</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>362833163824</v>
       </c>
       <c r="D118" t="n">
+        <v>1429769712328</v>
+      </c>
+      <c r="E118" t="n">
         <v>6147942476</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1380050802668</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>30817268386</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>3626531095</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>2920576543</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>6206591160</v>
       </c>
     </row>
